--- a/DOC/调拨、计划采购、直发梳理.xlsx
+++ b/DOC/调拨、计划采购、直发梳理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保存、提交、出库、作废、打印、受理调拨申请单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调拨出库明细表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,10 @@
   </si>
   <si>
     <t>曾史强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增、保存、提交、出库、作废、打印、受理调拨申请单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -598,11 +598,11 @@
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="65.125" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,16 +610,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -627,16 +630,19 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -644,13 +650,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -658,44 +667,53 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -703,13 +721,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -717,16 +738,19 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -734,13 +758,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -748,13 +775,16 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -762,41 +792,50 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -804,97 +843,118 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -902,24 +962,30 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
-        <v>46</v>
+      <c r="F22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
